--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H2">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I2">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J2">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.297755428882497</v>
+        <v>0.308173</v>
       </c>
       <c r="N2">
-        <v>0.297755428882497</v>
+        <v>0.6163460000000001</v>
       </c>
       <c r="O2">
-        <v>0.01825295104879127</v>
+        <v>0.01562452111805829</v>
       </c>
       <c r="P2">
-        <v>0.01825295104879127</v>
+        <v>0.01052496837195314</v>
       </c>
       <c r="Q2">
-        <v>0.0693491072559181</v>
+        <v>0.08288266609050002</v>
       </c>
       <c r="R2">
-        <v>0.0693491072559181</v>
+        <v>0.3315306643620001</v>
       </c>
       <c r="S2">
-        <v>1.20972482684862E-05</v>
+        <v>1.05100597050441E-05</v>
       </c>
       <c r="T2">
-        <v>1.20972482684862E-05</v>
+        <v>4.720906479902027E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H3">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I3">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J3">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.69853684966225</v>
+        <v>1.770252</v>
       </c>
       <c r="N3">
-        <v>1.69853684966225</v>
+        <v>5.310756</v>
       </c>
       <c r="O3">
-        <v>0.1041234078848248</v>
+        <v>0.08975263815546759</v>
       </c>
       <c r="P3">
-        <v>0.1041234078848248</v>
+        <v>0.09068857254068391</v>
       </c>
       <c r="Q3">
-        <v>0.3955998874896779</v>
+        <v>0.476106620022</v>
       </c>
       <c r="R3">
-        <v>0.3955998874896779</v>
+        <v>2.856639720132</v>
       </c>
       <c r="S3">
-        <v>6.900838732194989E-05</v>
+        <v>6.037340783577316E-05</v>
       </c>
       <c r="T3">
-        <v>6.900838732194989E-05</v>
+        <v>4.067777257186477E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H4">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I4">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J4">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.014125320130439</v>
+        <v>10.33148</v>
       </c>
       <c r="N4">
-        <v>8.014125320130439</v>
+        <v>30.99444</v>
       </c>
       <c r="O4">
-        <v>0.4912805039902278</v>
+        <v>0.5238110653457533</v>
       </c>
       <c r="P4">
-        <v>0.4912805039902278</v>
+        <v>0.5292733313859411</v>
       </c>
       <c r="Q4">
-        <v>1.866540060995559</v>
+        <v>2.778636048780001</v>
       </c>
       <c r="R4">
-        <v>1.866540060995559</v>
+        <v>16.67181629268</v>
       </c>
       <c r="S4">
-        <v>0.0003255989790555195</v>
+        <v>0.0003523490754915875</v>
       </c>
       <c r="T4">
-        <v>0.0003255989790555195</v>
+        <v>0.0002374021290588964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H5">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I5">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J5">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.87839063467238</v>
+        <v>6.856480333333334</v>
       </c>
       <c r="N5">
-        <v>5.87839063467238</v>
+        <v>20.569441</v>
       </c>
       <c r="O5">
-        <v>0.3603560710985085</v>
+        <v>0.3476268906222089</v>
       </c>
       <c r="P5">
-        <v>0.3603560710985085</v>
+        <v>0.3512519201126578</v>
       </c>
       <c r="Q5">
-        <v>1.369114054934509</v>
+        <v>1.8440401009295</v>
       </c>
       <c r="R5">
-        <v>1.369114054934509</v>
+        <v>11.064240605577</v>
       </c>
       <c r="S5">
-        <v>0.0002388280582949134</v>
+        <v>0.0002338362467503448</v>
       </c>
       <c r="T5">
-        <v>0.0002388280582949134</v>
+        <v>0.0001575517766073965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H6">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I6">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J6">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.122088862857975</v>
+        <v>0.1548006666666667</v>
       </c>
       <c r="N6">
-        <v>0.122088862857975</v>
+        <v>0.464402</v>
       </c>
       <c r="O6">
-        <v>0.007484270045765084</v>
+        <v>0.007848469156684183</v>
       </c>
       <c r="P6">
-        <v>0.007484270045765084</v>
+        <v>0.007930312457405064</v>
       </c>
       <c r="Q6">
-        <v>0.02843526204330606</v>
+        <v>0.04163340709900001</v>
       </c>
       <c r="R6">
-        <v>0.02843526204330606</v>
+        <v>0.249800442594</v>
       </c>
       <c r="S6">
-        <v>4.960243010020586E-06</v>
+        <v>5.279386088486975E-06</v>
       </c>
       <c r="T6">
-        <v>4.960243010020586E-06</v>
+        <v>3.557090353599213E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H7">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I7">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J7">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.301831080546719</v>
+        <v>0.3024905</v>
       </c>
       <c r="N7">
-        <v>0.301831080546719</v>
+        <v>0.604981</v>
       </c>
       <c r="O7">
-        <v>0.01850279593188264</v>
+        <v>0.01533641560182758</v>
       </c>
       <c r="P7">
-        <v>0.01850279593188264</v>
+        <v>0.01033089513135898</v>
       </c>
       <c r="Q7">
-        <v>0.07029835209575419</v>
+        <v>0.08135436623925001</v>
       </c>
       <c r="R7">
-        <v>0.07029835209575419</v>
+        <v>0.325417464957</v>
       </c>
       <c r="S7">
-        <v>1.226283440145112E-05</v>
+        <v>1.031626137010264E-05</v>
       </c>
       <c r="T7">
-        <v>1.226283440145112E-05</v>
+        <v>4.63385618324384E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H8">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I8">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J8">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.297755428882497</v>
+        <v>0.308173</v>
       </c>
       <c r="N8">
-        <v>0.297755428882497</v>
+        <v>0.6163460000000001</v>
       </c>
       <c r="O8">
-        <v>0.01825295104879127</v>
+        <v>0.01562452111805829</v>
       </c>
       <c r="P8">
-        <v>0.01825295104879127</v>
+        <v>0.01052496837195314</v>
       </c>
       <c r="Q8">
-        <v>47.55260225233108</v>
+        <v>57.348671059234</v>
       </c>
       <c r="R8">
-        <v>47.55260225233108</v>
+        <v>344.092026355404</v>
       </c>
       <c r="S8">
-        <v>0.008295069079060627</v>
+        <v>0.007272183500701477</v>
       </c>
       <c r="T8">
-        <v>0.008295069079060627</v>
+        <v>0.00489977685783577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H9">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I9">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J9">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.69853684966225</v>
+        <v>1.770252</v>
       </c>
       <c r="N9">
-        <v>1.69853684966225</v>
+        <v>5.310756</v>
       </c>
       <c r="O9">
-        <v>0.1041234078848248</v>
+        <v>0.08975263815546759</v>
       </c>
       <c r="P9">
-        <v>0.1041234078848248</v>
+        <v>0.09068857254068391</v>
       </c>
       <c r="Q9">
-        <v>271.2623831110417</v>
+        <v>329.430545959416</v>
       </c>
       <c r="R9">
-        <v>271.2623831110417</v>
+        <v>2964.874913634744</v>
       </c>
       <c r="S9">
-        <v>0.04731897098957178</v>
+        <v>0.04177393018364291</v>
       </c>
       <c r="T9">
-        <v>0.04731897098957178</v>
+        <v>0.04221901228597647</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H10">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I10">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J10">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.014125320130439</v>
+        <v>10.33148</v>
       </c>
       <c r="N10">
-        <v>8.014125320130439</v>
+        <v>30.99444</v>
       </c>
       <c r="O10">
-        <v>0.4912805039902278</v>
+        <v>0.5238110653457533</v>
       </c>
       <c r="P10">
-        <v>0.4912805039902278</v>
+        <v>0.5292733313859411</v>
       </c>
       <c r="Q10">
-        <v>1279.884350652389</v>
+        <v>1922.61050797784</v>
       </c>
       <c r="R10">
-        <v>1279.884350652389</v>
+        <v>17303.49457180056</v>
       </c>
       <c r="S10">
-        <v>0.2232628415482725</v>
+        <v>0.2437994840360035</v>
       </c>
       <c r="T10">
-        <v>0.2232628415482725</v>
+        <v>0.2463970559289413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H11">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I11">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J11">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.87839063467238</v>
+        <v>6.856480333333334</v>
       </c>
       <c r="N11">
-        <v>5.87839063467238</v>
+        <v>20.569441</v>
       </c>
       <c r="O11">
-        <v>0.3603560710985085</v>
+        <v>0.3476268906222089</v>
       </c>
       <c r="P11">
-        <v>0.3603560710985085</v>
+        <v>0.3512519201126578</v>
       </c>
       <c r="Q11">
-        <v>938.7999163726937</v>
+        <v>1275.939278458659</v>
       </c>
       <c r="R11">
-        <v>938.7999163726937</v>
+        <v>11483.45350612793</v>
       </c>
       <c r="S11">
-        <v>0.1637641220222829</v>
+        <v>0.161797377294412</v>
       </c>
       <c r="T11">
-        <v>0.1637641220222829</v>
+        <v>0.1635212542799308</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H12">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I12">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J12">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.122088862857975</v>
+        <v>0.1548006666666667</v>
       </c>
       <c r="N12">
-        <v>0.122088862857975</v>
+        <v>0.464402</v>
       </c>
       <c r="O12">
-        <v>0.007484270045765084</v>
+        <v>0.007848469156684183</v>
       </c>
       <c r="P12">
-        <v>0.007484270045765084</v>
+        <v>0.007930312457405064</v>
       </c>
       <c r="Q12">
-        <v>19.49802613747056</v>
+        <v>28.80723656003867</v>
       </c>
       <c r="R12">
-        <v>19.49802613747056</v>
+        <v>259.265129040348</v>
       </c>
       <c r="S12">
-        <v>0.00340123286749716</v>
+        <v>0.003652944463112999</v>
       </c>
       <c r="T12">
-        <v>0.00340123286749716</v>
+        <v>0.003691864914078532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H13">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I13">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J13">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.301831080546719</v>
+        <v>0.3024905</v>
       </c>
       <c r="N13">
-        <v>0.301831080546719</v>
+        <v>0.604981</v>
       </c>
       <c r="O13">
-        <v>0.01850279593188264</v>
+        <v>0.01533641560182758</v>
       </c>
       <c r="P13">
-        <v>0.01850279593188264</v>
+        <v>0.01033089513135898</v>
       </c>
       <c r="Q13">
-        <v>48.20349833585566</v>
+        <v>56.291200666649</v>
       </c>
       <c r="R13">
-        <v>48.20349833585566</v>
+        <v>337.747203999894</v>
       </c>
       <c r="S13">
-        <v>0.008408611298001164</v>
+        <v>0.007138089395303742</v>
       </c>
       <c r="T13">
-        <v>0.008408611298001164</v>
+        <v>0.004809428313366748</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H14">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I14">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J14">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.297755428882497</v>
+        <v>0.308173</v>
       </c>
       <c r="N14">
-        <v>0.297755428882497</v>
+        <v>0.6163460000000001</v>
       </c>
       <c r="O14">
-        <v>0.01825295104879127</v>
+        <v>0.01562452111805829</v>
       </c>
       <c r="P14">
-        <v>0.01825295104879127</v>
+        <v>0.01052496837195314</v>
       </c>
       <c r="Q14">
-        <v>56.83927633251596</v>
+        <v>65.37023283806133</v>
       </c>
       <c r="R14">
-        <v>56.83927633251596</v>
+        <v>392.221397028368</v>
       </c>
       <c r="S14">
-        <v>0.009915035166323057</v>
+        <v>0.008289369568667963</v>
       </c>
       <c r="T14">
-        <v>0.009915035166323057</v>
+        <v>0.005585126004409752</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H15">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I15">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J15">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.69853684966225</v>
+        <v>1.770252</v>
       </c>
       <c r="N15">
-        <v>1.69853684966225</v>
+        <v>5.310756</v>
       </c>
       <c r="O15">
-        <v>0.1041234078848248</v>
+        <v>0.08975263815546759</v>
       </c>
       <c r="P15">
-        <v>0.1041234078848248</v>
+        <v>0.09068857254068391</v>
       </c>
       <c r="Q15">
-        <v>324.2379348757825</v>
+        <v>375.509163431072</v>
       </c>
       <c r="R15">
-        <v>324.2379348757825</v>
+        <v>3379.582470879648</v>
       </c>
       <c r="S15">
-        <v>0.05656001859950222</v>
+        <v>0.04761699778265324</v>
       </c>
       <c r="T15">
-        <v>0.05656001859950222</v>
+        <v>0.04812433509534435</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H16">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I16">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J16">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.014125320130439</v>
+        <v>10.33148</v>
       </c>
       <c r="N16">
-        <v>8.014125320130439</v>
+        <v>30.99444</v>
       </c>
       <c r="O16">
-        <v>0.4912805039902278</v>
+        <v>0.5238110653457533</v>
       </c>
       <c r="P16">
-        <v>0.4912805039902278</v>
+        <v>0.5292733313859411</v>
       </c>
       <c r="Q16">
-        <v>1529.836367195398</v>
+        <v>2191.532850579947</v>
       </c>
       <c r="R16">
-        <v>1529.836367195398</v>
+        <v>19723.79565521952</v>
       </c>
       <c r="S16">
-        <v>0.266864435267008</v>
+        <v>0.277900581528238</v>
       </c>
       <c r="T16">
-        <v>0.266864435267008</v>
+        <v>0.2808614850037443</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H17">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I17">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J17">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.87839063467238</v>
+        <v>6.856480333333334</v>
       </c>
       <c r="N17">
-        <v>5.87839063467238</v>
+        <v>20.569441</v>
       </c>
       <c r="O17">
-        <v>0.3603560710985085</v>
+        <v>0.3476268906222089</v>
       </c>
       <c r="P17">
-        <v>0.3603560710985085</v>
+        <v>0.3512519201126578</v>
       </c>
       <c r="Q17">
-        <v>1122.140647203689</v>
+        <v>1454.409425353903</v>
       </c>
       <c r="R17">
-        <v>1122.140647203689</v>
+        <v>13089.68482818513</v>
       </c>
       <c r="S17">
-        <v>0.1957460526678139</v>
+        <v>0.1844285496240868</v>
       </c>
       <c r="T17">
-        <v>0.1957460526678139</v>
+        <v>0.1863935513904075</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H18">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I18">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J18">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.122088862857975</v>
+        <v>0.1548006666666667</v>
       </c>
       <c r="N18">
-        <v>0.122088862857975</v>
+        <v>0.464402</v>
       </c>
       <c r="O18">
-        <v>0.007484270045765084</v>
+        <v>0.007848469156684183</v>
       </c>
       <c r="P18">
-        <v>0.007484270045765084</v>
+        <v>0.007930312457405064</v>
       </c>
       <c r="Q18">
-        <v>23.30584748412964</v>
+        <v>32.83660678737955</v>
       </c>
       <c r="R18">
-        <v>23.30584748412964</v>
+        <v>295.5294610864159</v>
       </c>
       <c r="S18">
-        <v>0.004065468674060414</v>
+        <v>0.004163894745731066</v>
       </c>
       <c r="T18">
-        <v>0.004065468674060414</v>
+        <v>0.004208259138048916</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H19">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I19">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J19">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.301831080546719</v>
+        <v>0.3024905</v>
       </c>
       <c r="N19">
-        <v>0.301831080546719</v>
+        <v>0.604981</v>
       </c>
       <c r="O19">
-        <v>0.01850279593188264</v>
+        <v>0.01533641560182758</v>
       </c>
       <c r="P19">
-        <v>0.01850279593188264</v>
+        <v>0.01033089513135898</v>
       </c>
       <c r="Q19">
-        <v>57.61728764215764</v>
+        <v>64.16485031557465</v>
       </c>
       <c r="R19">
-        <v>57.61728764215764</v>
+        <v>384.989101893448</v>
       </c>
       <c r="S19">
-        <v>0.01005075134697544</v>
+        <v>0.008136519245719634</v>
       </c>
       <c r="T19">
-        <v>0.01005075134697544</v>
+        <v>0.005482140088965964</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H20">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I20">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J20">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.297755428882497</v>
+        <v>0.308173</v>
       </c>
       <c r="N20">
-        <v>0.297755428882497</v>
+        <v>0.6163460000000001</v>
       </c>
       <c r="O20">
-        <v>0.01825295104879127</v>
+        <v>0.01562452111805829</v>
       </c>
       <c r="P20">
-        <v>0.01825295104879127</v>
+        <v>0.01052496837195314</v>
       </c>
       <c r="Q20">
-        <v>0.1762759720297737</v>
+        <v>0.4136853744643335</v>
       </c>
       <c r="R20">
-        <v>0.1762759720297737</v>
+        <v>2.482112246786</v>
       </c>
       <c r="S20">
-        <v>3.074955513909551E-05</v>
+        <v>5.245798898380297E-05</v>
       </c>
       <c r="T20">
-        <v>3.074955513909551E-05</v>
+        <v>3.53446032277167E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H21">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I21">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J21">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.69853684966225</v>
+        <v>1.770252</v>
       </c>
       <c r="N21">
-        <v>1.69853684966225</v>
+        <v>5.310756</v>
       </c>
       <c r="O21">
-        <v>0.1041234078848248</v>
+        <v>0.08975263815546759</v>
       </c>
       <c r="P21">
-        <v>0.1041234078848248</v>
+        <v>0.09068857254068391</v>
       </c>
       <c r="Q21">
-        <v>1.005560957616525</v>
+        <v>2.376351469844</v>
       </c>
       <c r="R21">
-        <v>1.005560957616525</v>
+        <v>21.387163228596</v>
       </c>
       <c r="S21">
-        <v>0.0001754099084288607</v>
+        <v>0.0003013367813356626</v>
       </c>
       <c r="T21">
-        <v>0.0001754099084288607</v>
+        <v>0.000304547386791211</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H22">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I22">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J22">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.014125320130439</v>
+        <v>10.33148</v>
       </c>
       <c r="N22">
-        <v>8.014125320130439</v>
+        <v>30.99444</v>
       </c>
       <c r="O22">
-        <v>0.4912805039902278</v>
+        <v>0.5238110653457533</v>
       </c>
       <c r="P22">
-        <v>0.4912805039902278</v>
+        <v>0.5292733313859411</v>
       </c>
       <c r="Q22">
-        <v>4.744490255228584</v>
+        <v>13.86877556622667</v>
       </c>
       <c r="R22">
-        <v>4.744490255228584</v>
+        <v>124.81898009604</v>
       </c>
       <c r="S22">
-        <v>0.0008276281958916733</v>
+        <v>0.001758650706020257</v>
       </c>
       <c r="T22">
-        <v>0.0008276281958916733</v>
+        <v>0.00177738832419659</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H23">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I23">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J23">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.87839063467238</v>
+        <v>6.856480333333334</v>
       </c>
       <c r="N23">
-        <v>5.87839063467238</v>
+        <v>20.569441</v>
       </c>
       <c r="O23">
-        <v>0.3603560710985085</v>
+        <v>0.3476268906222089</v>
       </c>
       <c r="P23">
-        <v>0.3603560710985085</v>
+        <v>0.3512519201126578</v>
       </c>
       <c r="Q23">
-        <v>3.480101192400138</v>
+        <v>9.204004355353446</v>
       </c>
       <c r="R23">
-        <v>3.480101192400138</v>
+        <v>82.83603919818101</v>
       </c>
       <c r="S23">
-        <v>0.0006070683501167442</v>
+        <v>0.001167127456959765</v>
       </c>
       <c r="T23">
-        <v>0.0006070683501167442</v>
+        <v>0.001179562665712</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H24">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I24">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J24">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.122088862857975</v>
+        <v>0.1548006666666667</v>
       </c>
       <c r="N24">
-        <v>0.122088862857975</v>
+        <v>0.464402</v>
       </c>
       <c r="O24">
-        <v>0.007484270045765084</v>
+        <v>0.007848469156684183</v>
       </c>
       <c r="P24">
-        <v>0.007484270045765084</v>
+        <v>0.007930312457405064</v>
       </c>
       <c r="Q24">
-        <v>0.07227855779177826</v>
+        <v>0.2078013705202223</v>
       </c>
       <c r="R24">
-        <v>0.07227855779177826</v>
+        <v>1.870212334682</v>
       </c>
       <c r="S24">
-        <v>1.260826119748863E-05</v>
+        <v>2.635056175163092E-05</v>
       </c>
       <c r="T24">
-        <v>1.260826119748863E-05</v>
+        <v>2.663131492401684E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H25">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I25">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J25">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.301831080546719</v>
+        <v>0.3024905</v>
       </c>
       <c r="N25">
-        <v>0.301831080546719</v>
+        <v>0.604981</v>
       </c>
       <c r="O25">
-        <v>0.01850279593188264</v>
+        <v>0.01533641560182758</v>
       </c>
       <c r="P25">
-        <v>0.01850279593188264</v>
+        <v>0.01033089513135898</v>
       </c>
       <c r="Q25">
-        <v>0.178688822943901</v>
+        <v>0.4060572982201667</v>
       </c>
       <c r="R25">
-        <v>0.178688822943901</v>
+        <v>2.436343789321</v>
       </c>
       <c r="S25">
-        <v>3.117045250458468E-05</v>
+        <v>5.149069943410049E-05</v>
       </c>
       <c r="T25">
-        <v>3.117045250458468E-05</v>
+        <v>3.46928728430253E-05</v>
       </c>
     </row>
   </sheetData>
